--- a/output/sheet.xlsx
+++ b/output/sheet.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,96 +431,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Time:</t>
+          <t>1-0202</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>20@50;9@27;9@52;</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$1711.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Miles:</t>
+          <t>2-1704</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MILEAGE ALLOWANCE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>250@0.655;</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$163.75</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GPS:</t>
+          <t>2-1751</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30@60;</t>
+          <t>DUES, SUBSCRIPTION, REGIS, TRAINING</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1@100;3@25;</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$175.00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOKKIA  2-2500</t>
+          <t>2-2500</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2@35;</t>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30@60;2@35;</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$1870.00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rebar 3-0306</t>
+          <t>2-9900</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3@2.04;</t>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1711@2.8</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$4790.80</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lath 3-0306</t>
+          <t>3-0101</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7@1;</t>
+          <t>OFFICE SUPPLIES</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5@1;6@0.5;3@7;1@10;</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$39.00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T-Post 3-0306</t>
+          <t>3-0306</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8@5;</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RM/LS Caps 3-0306</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6@0.58;</t>
+          <t>SURVEY MONUMENTS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3@2.04;7@1;8@5;6@0.58;</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$56.60</t>
         </is>
       </c>
     </row>

--- a/output/sheet.xlsx
+++ b/output/sheet.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C5000 Section 2</t>
+          <t>C1723</t>
         </is>
       </c>
     </row>
@@ -441,144 +441,1447 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20@50;9@27;9@52;</t>
+          <t>45.75@27;3@18;</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$1711.00</t>
+          <t>$1289.25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2-1704</t>
+          <t>2-9900</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MILEAGE ALLOWANCE</t>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250@0.655;</t>
+          <t>1289.25@2.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$163.75</t>
+          <t>$3609.90</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2-1751</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DUES, SUBSCRIPTION, REGIS, TRAINING</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1@100;3@25;</t>
+          <t>Job Total</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$175.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2-2500</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>30@60;2@35;</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$1870.00</t>
+          <t>$4899.15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2-9900</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1711@2.8</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$4790.80</t>
+          <t>C1623 E1/4 35-1-6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3-0101</t>
+          <t>1-0202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OFFICE SUPPLIES</t>
+          <t>SALARY CONTRACT HOURLY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5@1;6@0.5;3@7;1@10;</t>
+          <t>5.0@27;</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$39.00</t>
+          <t>$135.00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2-2500</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2.5@60;5.5@35;</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$342.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>135.0@2.8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$378.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>3-0306</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>SURVEY MONUMENTS</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3@2.04;7@1;8@5;6@0.58;</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$56.60</t>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7@2.04;6@0.58;</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$17.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Job Total</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$873.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C2322 A &amp;B Tie Corners for NDOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1-0202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6.25@27;</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$168.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2-1704</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MILEAGE ALLOWANCE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>48@0.655;</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$31.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2-2500</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2.5@60;</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>168.75@2.8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$472.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3-0306</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SURVEY MONUMENTS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2@2.04;2@0.58;</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$5.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Job Total</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$827.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C423 Dep Res N1/4 1-2-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1-0202</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3.25@27;</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$87.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2-1704</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MILEAGE ALLOWANCE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>21@0.655;</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$13.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2-2500</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.5@60;</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>87.75@2.8</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$245.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3-0306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SURVEY MONUMENTS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1@2.04;2@0.58;</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$3.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Job Total</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$440.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C723 N1/4-26-5-5Norris Public Power</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1-0202</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7.75@27;</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$209.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2-1704</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MILEAGE ALLOWANCE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>68@0.655;</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$44.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2-2500</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4@60;</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>209.25@2.8</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$585.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3-0306</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SURVEY MONUMENTS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>6@2.04;6@0.58;</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$15.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Job Total</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$1095.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C823 N1/4-36-2-5 Dave Anderson</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1-0202</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1.25@27;</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$33.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2-1704</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MILEAGE ALLOWANCE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>20@0.655;</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$13.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2-2500</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.5@60;</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$30.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>33.75@2.8</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$94.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Job Total</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$171.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C923 E1/4 17-3-8 Steve Janssen</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1-0202</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1.75@27;</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$47.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2-1704</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MILEAGE ALLOWANCE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>30@0.655;</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>$19.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2-2500</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1@60;</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>47.25@2.8</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>$132.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Job Total</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>$259.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C1023 Gage County Sec 22 &amp; 27 -2-7 Adams</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1-0202</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>8.5@27;</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>$229.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>229.5@2.8</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>$642.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Job Total</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>$872.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>C1123 10-4-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1-0202</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1.25@27;</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>$33.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2-1704</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MILEAGE ALLOWANCE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>10@0.655;</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>$6.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2-2500</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.5@60;</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>$30.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>33.75@2.8</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>$94.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3-0306</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SURVEY MONUMENTS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5@2.04;5@0.58;</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>$13.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Job Total</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>$177.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C1223 Re Monument NE Cor 35-6-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1-0202</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1@27;</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>$27.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2-1704</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MILEAGE ALLOWANCE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>20@0.655;</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>$13.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2-2500</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.5@60;</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>$30.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>27@2.8</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>$75.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3-0306</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SURVEY MONUMENTS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1@2.04;</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>$2.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Job Total</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>$147.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>C1323 Gage County Remonument NE 16-6-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1-0202</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2@27;</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>$54.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2-1704</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MILEAGE ALLOWANCE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>48@0.655;</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>$31.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2-2500</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1@60;</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>54@2.8</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>$151.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3-0306</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SURVEY MONUMENTS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1@2.04;</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>$2.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Job Total</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>$298.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1423 32-5-6 W14</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1-0202</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>7.25@27;</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>$195.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2-1704</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MILEAGE ALLOWANCE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>37@0.655;</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>$24.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2-2500</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3.0@60;</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>$180.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>195.75@2.8</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>$548.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3-0306</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SURVEY MONUMENTS</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>7@2.04;7@0.58;</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>$18.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Job Total</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>$966.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1-0202</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SALARY CONTRACT HOURLY</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>$2511.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2-1704</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MILEAGE ALLOWANCE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$197.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2-2500</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL SERVICE- MACHINE HIRE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$1212.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2-9900</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MISC OPERATING EXP/OVERHEAD COSTS</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>$7030.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>3-0101</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>OFFICE SUPPLIES</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>3-0306</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SURVEY MONUMENTS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$77.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$11029.55</t>
         </is>
       </c>
     </row>
